--- a/Yinghua_Player_list.xlsx
+++ b/Yinghua_Player_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef7e611255b9b3a5/SAKURA_Apps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef7e611255b9b3a5/SAKURA_Apps/SAKURA_APP_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04CAB5FE-2DAA-F34F-87C7-4A7AE314E920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{04CAB5FE-2DAA-F34F-87C7-4A7AE314E920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{227F4532-7A97-7A4A-80BE-B1F780595912}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="2880" windowWidth="10000" windowHeight="13600" xr2:uid="{8A3D925E-469B-DA45-9D6C-E96B1E9FBB15}"/>
   </bookViews>
@@ -133,15 +133,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日髙偉織</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>林雨慧</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>蔡馨萱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日高偉織</t>
+    <rPh sb="1" eb="2">
+      <t>タカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -508,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380CA3E9-80F3-9642-AD86-F0E59729A1DB}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -761,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -772,7 +775,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -783,7 +786,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
